--- a/CASUAL/LA CENRO/RODRIGUEZ, JERALD.xlsx
+++ b/CASUAL/LA CENRO/RODRIGUEZ, JERALD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CENRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CENRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F748287C-A3DF-4028-9456-4733A37B9618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -342,12 +343,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>2/9/10/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -729,14 +733,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -746,9 +753,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1260,7 +1264,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1277,25 +1281,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K118" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K118" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1307,25 +1311,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K77" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K77" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1632,34 +1636,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A94" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1671,16 +1675,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1689,18 +1693,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>36194</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1711,16 +1715,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1728,7 +1732,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1741,24 +1745,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1802,7 +1806,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>42.430000000000007</v>
+        <v>39.930000000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1812,12 +1816,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>88.75</v>
+        <v>89.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>43</v>
       </c>
@@ -1839,7 +1843,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>43101</v>
       </c>
@@ -1859,7 +1863,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
         <v>43132</v>
       </c>
@@ -1879,7 +1883,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>43160</v>
       </c>
@@ -1899,7 +1903,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <v>43191</v>
       </c>
@@ -1919,7 +1923,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <v>43221</v>
       </c>
@@ -1939,7 +1943,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <v>43252</v>
       </c>
@@ -1959,7 +1963,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <v>43282</v>
       </c>
@@ -1979,7 +1983,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <v>43313</v>
       </c>
@@ -1999,7 +2003,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>43344</v>
       </c>
@@ -2019,7 +2023,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <v>43374</v>
       </c>
@@ -2039,7 +2043,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <v>43405</v>
       </c>
@@ -2059,7 +2063,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>43435</v>
       </c>
@@ -2083,7 +2087,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>50</v>
       </c>
@@ -2101,7 +2105,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <v>43466</v>
       </c>
@@ -2121,7 +2125,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
         <v>43497</v>
       </c>
@@ -2141,7 +2145,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <v>43525</v>
       </c>
@@ -2161,7 +2165,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <v>43556</v>
       </c>
@@ -2181,7 +2185,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
         <v>43586</v>
       </c>
@@ -2201,7 +2205,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <v>43617</v>
       </c>
@@ -2221,7 +2225,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="46"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <v>43647</v>
       </c>
@@ -2241,7 +2245,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <v>43678</v>
       </c>
@@ -2261,7 +2265,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <v>43709</v>
       </c>
@@ -2281,7 +2285,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39">
         <v>43739</v>
       </c>
@@ -2301,7 +2305,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39">
         <v>43770</v>
       </c>
@@ -2321,7 +2325,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="46"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="39">
         <v>43800</v>
       </c>
@@ -2345,7 +2349,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
         <v>63</v>
       </c>
@@ -2363,7 +2367,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
         <v>43831</v>
       </c>
@@ -2383,7 +2387,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="39">
         <v>43862</v>
       </c>
@@ -2403,7 +2407,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="46"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
         <v>43891</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
         <v>43922</v>
       </c>
@@ -2449,7 +2453,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="39">
         <v>43952</v>
       </c>
@@ -2469,7 +2473,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="39">
         <v>43983</v>
       </c>
@@ -2489,7 +2493,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="39">
         <v>44013</v>
       </c>
@@ -2509,7 +2513,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="46"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
         <v>44044</v>
       </c>
@@ -2529,7 +2533,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="39">
         <v>44075</v>
       </c>
@@ -2549,7 +2553,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="39">
         <v>44105</v>
       </c>
@@ -2569,7 +2573,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="39">
         <v>44136</v>
       </c>
@@ -2589,7 +2593,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="39">
         <v>44166</v>
       </c>
@@ -2613,7 +2617,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
         <v>67</v>
       </c>
@@ -2631,7 +2635,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="39">
         <v>44197</v>
       </c>
@@ -2651,7 +2655,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="39">
         <v>44228</v>
       </c>
@@ -2671,7 +2675,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="46"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39">
         <v>44256</v>
       </c>
@@ -2691,7 +2695,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39">
         <v>44287</v>
       </c>
@@ -2711,7 +2715,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39">
         <v>44317</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39">
         <v>44348</v>
       </c>
@@ -2757,7 +2761,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39">
         <v>44378</v>
       </c>
@@ -2783,7 +2787,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="39">
         <v>44409</v>
       </c>
@@ -2803,7 +2807,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39">
         <v>44440</v>
       </c>
@@ -2823,7 +2827,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39">
         <v>44470</v>
       </c>
@@ -2843,7 +2847,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39">
         <v>44501</v>
       </c>
@@ -2863,7 +2867,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39">
         <v>44531</v>
       </c>
@@ -2883,7 +2887,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="45" t="s">
         <v>71</v>
       </c>
@@ -2901,7 +2905,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39">
         <v>44562</v>
       </c>
@@ -2921,7 +2925,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="39">
         <v>44593</v>
       </c>
@@ -2941,7 +2945,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39">
         <v>44621</v>
       </c>
@@ -2967,7 +2971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39"/>
       <c r="B66" s="20" t="s">
         <v>99</v>
@@ -2987,7 +2991,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="39">
         <v>44652</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39">
         <v>44682</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>44687</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
         <v>97</v>
@@ -3059,7 +3063,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="46"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="39">
         <v>44713</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="39"/>
       <c r="B71" s="20" t="s">
         <v>96</v>
@@ -3105,7 +3109,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39">
         <v>44743</v>
       </c>
@@ -3129,7 +3133,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39">
         <v>44774</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="39"/>
       <c r="B74" s="20" t="s">
         <v>92</v>
@@ -3175,7 +3179,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="39">
         <v>44805</v>
       </c>
@@ -3201,7 +3205,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39"/>
       <c r="B76" s="20" t="s">
         <v>89</v>
@@ -3221,7 +3225,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="46"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="39">
         <v>44835</v>
       </c>
@@ -3247,7 +3251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="39"/>
       <c r="B78" s="20" t="s">
         <v>87</v>
@@ -3267,7 +3271,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="39">
         <v>44866</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="20" t="s">
         <v>84</v>
@@ -3313,7 +3317,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="39">
         <v>44896</v>
       </c>
@@ -3339,7 +3343,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="39"/>
       <c r="B82" s="20" t="s">
         <v>80</v>
@@ -3359,7 +3363,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="46"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="45" t="s">
         <v>74</v>
       </c>
@@ -3377,7 +3381,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="39">
         <v>44927</v>
       </c>
@@ -3397,7 +3401,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39">
         <v>44958</v>
       </c>
@@ -3417,7 +3421,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="39">
         <v>44986</v>
       </c>
@@ -3437,7 +3441,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="39">
         <v>45017</v>
       </c>
@@ -3457,7 +3461,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="39">
         <v>45047</v>
       </c>
@@ -3477,7 +3481,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="39">
         <v>45078</v>
       </c>
@@ -3497,7 +3501,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="39">
         <v>45108</v>
       </c>
@@ -3517,7 +3521,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="39">
         <v>45139</v>
       </c>
@@ -3537,7 +3541,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="39">
         <v>45170</v>
       </c>
@@ -3557,7 +3561,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="39">
         <v>45200</v>
       </c>
@@ -3577,7 +3581,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="39">
         <v>45231</v>
       </c>
@@ -3597,25 +3601,31 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="39">
         <v>45261</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="38"/>
+      <c r="B95" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D95" s="38">
+        <v>5</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="38"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="45" t="s">
         <v>101</v>
       </c>
@@ -3633,29 +3643,33 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="39">
         <v>45292</v>
       </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="38"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="38"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="39">
         <v>45323</v>
       </c>
-      <c r="B98" s="20"/>
+      <c r="B98" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="38"/>
       <c r="E98" s="9"/>
@@ -3664,12 +3678,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H98" s="38"/>
+      <c r="H98" s="38">
+        <v>2</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="39">
         <v>45352</v>
       </c>
@@ -3687,7 +3705,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="39">
         <v>45383</v>
       </c>
@@ -3705,7 +3723,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="39">
         <v>45413</v>
       </c>
@@ -3723,7 +3741,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="39">
         <v>45444</v>
       </c>
@@ -3741,7 +3759,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="39">
         <v>45474</v>
       </c>
@@ -3759,7 +3777,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="39"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3775,7 +3793,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="39"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3791,7 +3809,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="39"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3807,7 +3825,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="39"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3823,7 +3841,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="39"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3839,7 +3857,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="39"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3855,7 +3873,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="39"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3871,7 +3889,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="39"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3887,7 +3905,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="39"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3903,7 +3921,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="39"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3919,7 +3937,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="39"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3935,7 +3953,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="39"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3951,7 +3969,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="39"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3967,7 +3985,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="39"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3983,7 +4001,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="15"/>
       <c r="C118" s="41"/>
@@ -4001,23 +4019,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4040,34 +4058,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4079,16 +4097,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4097,18 +4115,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>36194</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4119,18 +4137,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4138,7 +4156,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4151,24 +4169,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +4221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4227,7 +4245,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>43</v>
       </c>
@@ -4249,7 +4267,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>43101</v>
       </c>
@@ -4273,7 +4291,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
         <v>43191</v>
       </c>
@@ -4297,7 +4315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="20" t="s">
         <v>44</v>
@@ -4319,7 +4337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <v>43252</v>
       </c>
@@ -4343,7 +4361,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>50</v>
       </c>
@@ -4361,7 +4379,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <v>43525</v>
       </c>
@@ -4385,7 +4403,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <v>43556</v>
       </c>
@@ -4409,7 +4427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <v>43586</v>
       </c>
@@ -4433,7 +4451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>43617</v>
       </c>
@@ -4457,7 +4475,7 @@
         <v>43634</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <v>43647</v>
       </c>
@@ -4481,7 +4499,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <v>43709</v>
       </c>
@@ -4505,7 +4523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>43739</v>
       </c>
@@ -4529,7 +4547,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
         <v>55</v>
@@ -4551,7 +4569,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <v>43770</v>
       </c>
@@ -4575,7 +4593,7 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="20" t="s">
         <v>60</v>
@@ -4595,7 +4613,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
       <c r="B26" s="20" t="s">
         <v>61</v>
@@ -4617,7 +4635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
         <v>63</v>
       </c>
@@ -4635,7 +4653,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
         <v>43862</v>
       </c>
@@ -4659,7 +4677,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <v>44013</v>
       </c>
@@ -4683,7 +4701,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <v>44105</v>
       </c>
@@ -4707,7 +4725,7 @@
         <v>44130</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <v>44136</v>
       </c>
@@ -4731,7 +4749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>67</v>
       </c>
@@ -4749,7 +4767,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39">
         <v>44228</v>
       </c>
@@ -4773,7 +4791,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
       <c r="B34" s="20" t="s">
         <v>46</v>
@@ -4795,7 +4813,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="39">
         <v>44317</v>
       </c>
@@ -4819,7 +4837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <v>44378</v>
       </c>
@@ -4843,7 +4861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>71</v>
       </c>
@@ -4861,7 +4879,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="39">
         <v>44805</v>
       </c>
@@ -4885,7 +4903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
         <v>74</v>
       </c>
@@ -4900,7 +4918,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
         <v>44986</v>
       </c>
@@ -4921,7 +4939,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="39"/>
       <c r="B41" s="20" t="s">
         <v>51</v>
@@ -4943,7 +4961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="39">
         <v>45047</v>
       </c>
@@ -4967,7 +4985,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="39">
         <v>45200</v>
       </c>
@@ -4991,7 +5009,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
         <v>45260</v>
       </c>
@@ -5015,7 +5033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="39"/>
       <c r="B45" s="20" t="s">
         <v>55</v>
@@ -5037,7 +5055,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="39">
         <v>45261</v>
       </c>
@@ -5061,7 +5079,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -5077,7 +5095,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="39"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -5093,7 +5111,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="39"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -5109,7 +5127,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="39"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -5125,7 +5143,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="39"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -5141,7 +5159,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -5157,7 +5175,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -5173,7 +5191,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -5189,7 +5207,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -5205,7 +5223,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -5221,7 +5239,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="39"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -5237,7 +5255,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -5253,7 +5271,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -5269,7 +5287,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -5285,7 +5303,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -5301,7 +5319,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5317,7 +5335,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -5333,7 +5351,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -5349,7 +5367,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5365,7 +5383,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5381,7 +5399,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="39"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5397,7 +5415,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5413,7 +5431,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5429,7 +5447,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5445,7 +5463,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="39"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5461,7 +5479,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -5477,7 +5495,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -5493,7 +5511,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="39"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -5509,7 +5527,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="39"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5525,7 +5543,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -5541,7 +5559,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="15"/>
       <c r="C77" s="41"/>
@@ -5572,10 +5590,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5598,28 +5616,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="47" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="47" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -5632,7 +5650,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5661,7 +5679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="37">
         <v>202</v>
       </c>
@@ -5689,17 +5707,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="48" t="s">
         <v>28</v>
       </c>
@@ -5720,7 +5738,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="47">
         <v>1</v>
       </c>
@@ -5747,7 +5765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="47">
         <v>2</v>
       </c>
@@ -5773,7 +5791,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47">
         <v>3</v>
       </c>
@@ -5799,7 +5817,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="47">
         <v>4</v>
       </c>
@@ -5825,7 +5843,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="47">
         <v>5</v>
       </c>
@@ -5851,7 +5869,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="47">
         <v>6</v>
       </c>
@@ -5877,7 +5895,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47">
         <v>7</v>
       </c>
@@ -5903,7 +5921,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="47">
         <v>8</v>
       </c>
@@ -5929,7 +5947,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="47">
         <v>9</v>
       </c>
@@ -5949,7 +5967,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="47">
         <v>10</v>
       </c>
@@ -5969,7 +5987,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="47">
         <v>11</v>
       </c>
@@ -5989,7 +6007,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="47">
         <v>12</v>
       </c>
@@ -6010,7 +6028,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="47">
         <v>13</v>
       </c>
@@ -6031,7 +6049,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="47">
         <v>14</v>
       </c>
@@ -6052,7 +6070,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="47">
         <v>15</v>
       </c>
@@ -6073,7 +6091,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="47">
         <v>16</v>
       </c>
@@ -6094,7 +6112,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="47">
         <v>17</v>
       </c>
@@ -6115,7 +6133,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="47">
         <v>18</v>
       </c>
@@ -6136,7 +6154,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="47">
         <v>19</v>
       </c>
@@ -6157,7 +6175,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="47">
         <v>20</v>
       </c>
@@ -6178,7 +6196,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="47">
         <v>21</v>
       </c>
@@ -6199,7 +6217,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="47">
         <v>22</v>
       </c>
@@ -6220,7 +6238,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="47">
         <v>23</v>
       </c>
@@ -6241,7 +6259,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="47">
         <v>24</v>
       </c>
@@ -6262,7 +6280,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="47">
         <v>25</v>
       </c>
@@ -6283,7 +6301,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="47">
         <v>26</v>
       </c>
@@ -6304,7 +6322,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="47">
         <v>27</v>
       </c>
@@ -6325,7 +6343,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="47">
         <v>28</v>
       </c>
@@ -6346,7 +6364,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="47">
         <v>29</v>
       </c>
@@ -6367,7 +6385,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="47">
         <v>30</v>
       </c>
@@ -6388,7 +6406,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="47">
         <v>31</v>
       </c>
@@ -6409,7 +6427,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="47">
         <v>32</v>
       </c>
@@ -6418,7 +6436,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="47">
         <v>33</v>
       </c>
@@ -6427,7 +6445,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="47">
         <v>34</v>
       </c>
@@ -6436,7 +6454,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="47">
         <v>35</v>
       </c>
@@ -6445,7 +6463,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="47">
         <v>36</v>
       </c>
@@ -6454,7 +6472,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="47">
         <v>37</v>
       </c>
@@ -6463,7 +6481,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="47">
         <v>38</v>
       </c>
@@ -6472,7 +6490,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="47">
         <v>39</v>
       </c>
@@ -6481,7 +6499,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="47">
         <v>40</v>
       </c>
@@ -6490,7 +6508,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="47">
         <v>41</v>
       </c>
@@ -6499,7 +6517,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="47">
         <v>42</v>
       </c>
@@ -6508,7 +6526,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="47">
         <v>43</v>
       </c>
@@ -6517,7 +6535,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="47">
         <v>44</v>
       </c>
@@ -6526,7 +6544,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="47">
         <v>45</v>
       </c>
@@ -6535,7 +6553,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="47">
         <v>46</v>
       </c>
@@ -6544,7 +6562,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="47">
         <v>47</v>
       </c>
@@ -6553,7 +6571,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="47">
         <v>48</v>
       </c>
@@ -6562,7 +6580,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="47">
         <v>49</v>
       </c>
@@ -6571,7 +6589,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="47">
         <v>50</v>
       </c>
@@ -6580,7 +6598,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="47">
         <v>51</v>
       </c>
@@ -6589,7 +6607,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="47">
         <v>52</v>
       </c>
@@ -6598,7 +6616,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="47">
         <v>53</v>
       </c>
@@ -6607,7 +6625,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="47">
         <v>54</v>
       </c>
@@ -6616,7 +6634,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="47">
         <v>55</v>
       </c>
@@ -6625,7 +6643,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="47">
         <v>56</v>
       </c>
@@ -6634,7 +6652,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="47">
         <v>57</v>
       </c>
@@ -6643,7 +6661,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="47">
         <v>58</v>
       </c>
@@ -6652,7 +6670,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="47">
         <v>59</v>
       </c>
@@ -6661,7 +6679,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="47">
         <v>60</v>
       </c>
@@ -6670,7 +6688,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
